--- a/pomocnicze/SSDQMvsISO21001.xlsx
+++ b/pomocnicze/SSDQMvsISO21001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPSZ\Desktop\STUDIA\doktorat_git\pomocnicze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189601B7-50B7-43E7-92B2-0E8364D679DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC8BEC-EB3F-496E-8736-DFA8089E04AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1830" yWindow="-21710" windowWidth="37380" windowHeight="21820" activeTab="3" xr2:uid="{9E83F4E7-F310-436B-A179-0F14A6088F0A}"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="11460" windowHeight="13500" firstSheet="2" activeTab="3" xr2:uid="{9E83F4E7-F310-436B-A179-0F14A6088F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="PivotSSDQM" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="343">
   <si>
     <t>SSDQM vs ISO 21001</t>
   </si>
@@ -1064,12 +1064,132 @@
   <si>
     <t>Struktura ISO21001 -&gt; 4-10</t>
   </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>SSDQM</t>
+  </si>
+  <si>
+    <t>2., 2.1, 2.2, 2.3</t>
+  </si>
+  <si>
+    <t>brak</t>
+  </si>
+  <si>
+    <t>ogólny</t>
+  </si>
+  <si>
+    <t>całość tego dotyczy, szczególnie 6.</t>
+  </si>
+  <si>
+    <t>"9.6"</t>
+  </si>
+  <si>
+    <t>6.3, ale nieco węższy zakres</t>
+  </si>
+  <si>
+    <t>7.1 ale w znacznie węższym kontekście</t>
+  </si>
+  <si>
+    <t>8. w węższym zakresie; 8.4 nieco bardziej bezpośrednio się z tym wiąże</t>
+  </si>
+  <si>
+    <t>"8.2"</t>
+  </si>
+  <si>
+    <t>7. w pewnym sensie; węższy zakres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. , 8. </t>
+  </si>
+  <si>
+    <t>9.3, 9.4</t>
+  </si>
+  <si>
+    <t>"9.4"</t>
+  </si>
+  <si>
+    <t>"9.7"</t>
+  </si>
+  <si>
+    <t>"9.8"</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>"3.2"</t>
+  </si>
+  <si>
+    <t>"5.6"</t>
+  </si>
+  <si>
+    <t>"6.1, 7.</t>
+  </si>
+  <si>
+    <t>"7.8</t>
+  </si>
+  <si>
+    <t>"7.10</t>
+  </si>
+  <si>
+    <t>"9.2, 8.1</t>
+  </si>
+  <si>
+    <t>"5.1, 5.1.1, 5.1.2, 5.2, 8.1</t>
+  </si>
+  <si>
+    <t>"8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"3.2, 8.4, </t>
+  </si>
+  <si>
+    <t>8., 8.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3., 4., 5. , 7.10, 7.18, 8., 9.2, </t>
+  </si>
+  <si>
+    <t>9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"3.4, 4., 9.1, </t>
+  </si>
+  <si>
+    <t>"9.2</t>
+  </si>
+  <si>
+    <t>4.4.1 Orgnization shall</t>
+  </si>
+  <si>
+    <t>4.4.2 Orgnization shall</t>
+  </si>
+  <si>
+    <t>"9.4</t>
+  </si>
+  <si>
+    <t>"9.5</t>
+  </si>
+  <si>
+    <t>"9.6</t>
+  </si>
+  <si>
+    <t>"7.1, 9.6</t>
+  </si>
+  <si>
+    <t>"9.3, 9.7, 9.8</t>
+  </si>
+  <si>
+    <t>"9.3, 9.8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1225,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1186,7 +1313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1194,7 +1321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,7 +1336,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1224,37 +1350,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1308,11 +1417,12 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1328,6 +1438,26 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1642,7 +1772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8263F51D-D7FE-4EF3-AD2E-CF13E27960B4}" name="Tabela przestawna1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8263F51D-D7FE-4EF3-AD2E-CF13E27960B4}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -1670,24 +1800,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{234E6DF6-C467-47D3-AE74-197D7F839AB6}" name="SSDQMvsISO21001" displayName="SSDQMvsISO21001" ref="A3:B68" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="4" tableBorderDxfId="5" headerRowCellStyle="Hiperłącze">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{234E6DF6-C467-47D3-AE74-197D7F839AB6}" name="SSDQMvsISO21001" displayName="SSDQMvsISO21001" ref="A3:B68" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" headerRowCellStyle="Hiperłącze">
   <autoFilter ref="A3:B68" xr:uid="{234E6DF6-C467-47D3-AE74-197D7F839AB6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:B68">
-    <sortCondition sortBy="cellColor" ref="A3:A68" dxfId="0"/>
+    <sortCondition sortBy="cellColor" ref="A3:A68" dxfId="2"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{977DC4E7-B7E5-41F1-B47D-41BF4D5E62E8}" name="SSDQM[1]" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{34618309-FF20-454B-B1D2-B691B308E5B7}" name="Odniesienia w ISO 21001:2018[2]" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{977DC4E7-B7E5-41F1-B47D-41BF4D5E62E8}" name="SSDQM[1]" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{34618309-FF20-454B-B1D2-B691B308E5B7}" name="Odniesienia w ISO 21001:2018[2]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDC1FAE9-55D2-4C9C-BD75-FF7C2C0B4286}" name="Tabela2" displayName="Tabela2" ref="A1:A128" totalsRowShown="0">
-  <autoFilter ref="A1:A128" xr:uid="{FDC1FAE9-55D2-4C9C-BD75-FF7C2C0B4286}"/>
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FDC1FAE9-55D2-4C9C-BD75-FF7C2C0B4286}" name="Tabela2" displayName="Tabela2" ref="A1:B130" totalsRowShown="0">
+  <autoFilter ref="A1:B130" xr:uid="{FDC1FAE9-55D2-4C9C-BD75-FF7C2C0B4286}"/>
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{419102B7-F369-4556-A00D-5E6E2071A928}" name="Struktura ISO21001 -&gt; 4-10"/>
+    <tableColumn id="2" xr3:uid="{73AC483E-81D4-4C9E-B108-352C6EE3DE38}" name="SSDQM"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2007,7 +2138,7 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="8">
+      <c r="A4">
         <v>65</v>
       </c>
     </row>
@@ -2020,7 +2151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C2CA0D-7D1A-402D-A80B-BBE975EC25AE}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A57"/>
     </sheetView>
   </sheetViews>
@@ -2044,7 +2175,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2052,7 +2183,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2060,7 +2191,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2068,7 +2199,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2076,7 +2207,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2084,7 +2215,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2092,7 +2223,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2100,7 +2231,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2108,7 +2239,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2116,7 +2247,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2124,7 +2255,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2132,7 +2263,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2140,7 +2271,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2148,7 +2279,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2156,7 +2287,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2164,7 +2295,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2172,7 +2303,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2180,7 +2311,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2188,7 +2319,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2196,7 +2327,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2204,7 +2335,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2212,7 +2343,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2220,7 +2351,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2228,7 +2359,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2236,7 +2367,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2244,7 +2375,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2252,7 +2383,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2260,7 +2391,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -2268,7 +2399,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2276,7 +2407,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2284,7 +2415,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2292,7 +2423,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2300,7 +2431,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -2308,7 +2439,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -2316,7 +2447,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -2324,7 +2455,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -2332,7 +2463,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2340,7 +2471,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2348,7 +2479,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -2356,7 +2487,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2364,7 +2495,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2372,7 +2503,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -2380,7 +2511,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2388,7 +2519,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>83</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -2396,7 +2527,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2404,7 +2535,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2412,7 +2543,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2420,7 +2551,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2428,7 +2559,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2436,7 +2567,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" ht="46.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -2444,7 +2575,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2452,7 +2583,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2460,7 +2591,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2468,7 +2599,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>104</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -3022,658 +3153,1036 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB15455-543F-47AE-B779-63D63ACEA602}">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A128"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="128.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.53125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="B3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="B4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
+      <c r="B5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+      <c r="B15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+      <c r="B16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
+      <c r="B18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
+      <c r="B19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
+      <c r="B20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+      <c r="B23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="11" t="s">
+      <c r="B24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="10" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
+      <c r="B25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="B26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="11" t="s">
+      <c r="B27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" s="11" t="s">
+      <c r="B28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="10" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" s="11" t="s">
+      <c r="B30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" s="11" t="s">
+      <c r="B31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="10" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" s="11" t="s">
+      <c r="B32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="10" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
+      <c r="B33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="10" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="B34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="11" t="s">
+      <c r="B35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="10" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" s="11" t="s">
+      <c r="B36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="10" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="B37" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" s="11" t="s">
+      <c r="B38" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="10" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" s="11" t="s">
+      <c r="B39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" s="11" t="s">
+      <c r="B41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" s="11" t="s">
+      <c r="B42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" s="11" t="s">
+      <c r="B43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" s="11" t="s">
+      <c r="B45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="10" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" s="11" t="s">
+      <c r="B46" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="10" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="B47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" s="11" t="s">
+      <c r="B48" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" s="11" t="s">
+      <c r="B49" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="10" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="B50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="11" t="s">
+      <c r="B51" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" s="11" t="s">
+      <c r="B52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+      <c r="B53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" s="11" t="s">
+      <c r="B54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="10" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" s="11" t="s">
+      <c r="B55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="10" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="B56" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+      <c r="B57" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" s="11" t="s">
+      <c r="B58" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="10" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" s="11" t="s">
+      <c r="B59" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" s="11" t="s">
+      <c r="B60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="10" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="B61" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" s="11" t="s">
+      <c r="B62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" s="11" t="s">
+      <c r="B63" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" s="11" t="s">
+      <c r="B64" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="B65" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="11" t="s">
+      <c r="B66" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="10" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" s="11" t="s">
+      <c r="B67" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="10" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" s="11" t="s">
+      <c r="B68" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="10" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="B69" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+      <c r="B70" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" s="11" t="s">
+      <c r="B71" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="10" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" s="11" t="s">
+      <c r="B72" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" s="11" t="s">
+      <c r="B73" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="10" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" s="11" t="s">
+      <c r="B74" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="10" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" s="11" t="s">
+      <c r="B75" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="10" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" s="11" t="s">
+      <c r="B76" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="10" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" s="11" t="s">
+      <c r="B77" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="10" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="B78" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" s="11" t="s">
+      <c r="B79" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="10" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" s="11" t="s">
+      <c r="B80" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="10" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" s="11" t="s">
+      <c r="B81" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="10" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+      <c r="B82" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="B83" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" s="11" t="s">
+      <c r="B84" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="10" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="B85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" s="11" t="s">
+      <c r="B86" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" s="11" t="s">
+      <c r="B87" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" s="11" t="s">
+      <c r="B88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="10" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" s="11" t="s">
+      <c r="B89" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="10" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" s="11" t="s">
+      <c r="B90" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+      <c r="B91" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" s="11" t="s">
+      <c r="B92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="10" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" s="11" t="s">
+      <c r="B93" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="10" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" s="11" t="s">
+      <c r="B94" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="10" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" s="11" t="s">
+      <c r="B95" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="10" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" s="11" t="s">
+      <c r="B96" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="10" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" s="11" t="s">
+      <c r="B97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="10" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" s="11" t="s">
+      <c r="B98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="10" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" s="11" t="s">
+      <c r="B99" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" s="11" t="s">
+      <c r="B100" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="10" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" s="11" t="s">
+      <c r="B101" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="10" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+      <c r="B102" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" s="11" t="s">
+      <c r="B103" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="10" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A103" s="11" t="s">
+      <c r="B104" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="10" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A104" s="11" t="s">
+      <c r="B105" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="10" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+      <c r="B106" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+      <c r="B107" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" s="11" t="s">
+      <c r="B108" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" s="11" t="s">
+      <c r="B110" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="10" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A110" s="11" t="s">
+      <c r="B111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="10" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" s="11" t="s">
+      <c r="B112" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="10" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
+      <c r="B113" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A113" s="11" t="s">
+      <c r="B114" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="10" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A114" s="11" t="s">
+      <c r="B115" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="10" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A115" s="11" t="s">
+      <c r="B116" s="16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="10" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+      <c r="B117" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A117" s="11" t="s">
+      <c r="B118" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="10" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A118" s="11" t="s">
+      <c r="B119" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="10" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
+      <c r="B120" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A120" s="11" t="s">
+      <c r="B121" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A121" s="11" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A122" s="11" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="10" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
+      <c r="B124" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+      <c r="B125" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" s="11" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="10" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A126" s="11" t="s">
+      <c r="B127" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A127" s="11" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="10" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A128" s="11" t="s">
+      <c r="B129" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="10" t="s">
         <v>301</v>
       </c>
+      <c r="B130" t="s">
+        <v>342</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/pomocnicze/SSDQMvsISO21001.xlsx
+++ b/pomocnicze/SSDQMvsISO21001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPSZ\Desktop\STUDIA\doktorat_git\pomocnicze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC8BEC-EB3F-496E-8736-DFA8089E04AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4782361F-7DB5-458D-9C8C-6B8CFB578FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="11460" windowHeight="13500" firstSheet="2" activeTab="3" xr2:uid="{9E83F4E7-F310-436B-A179-0F14A6088F0A}"/>
+    <workbookView xWindow="983" yWindow="-98" windowWidth="23115" windowHeight="13695" firstSheet="2" activeTab="3" xr2:uid="{9E83F4E7-F310-436B-A179-0F14A6088F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="PivotSSDQM" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="344">
   <si>
     <t>SSDQM vs ISO 21001</t>
   </si>
@@ -1080,9 +1080,6 @@
     <t>ogólny</t>
   </si>
   <si>
-    <t>całość tego dotyczy, szczególnie 6.</t>
-  </si>
-  <si>
     <t>"9.6"</t>
   </si>
   <si>
@@ -1183,6 +1180,12 @@
   </si>
   <si>
     <t>"9.3, 9.8</t>
+  </si>
+  <si>
+    <t>całość pierwszej fazy tego dotyczy, szczególnie 6.</t>
+  </si>
+  <si>
+    <t>"9.7</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1357,7 +1360,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -3155,14 +3157,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB15455-543F-47AE-B779-63D63ACEA602}">
   <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="65.53125" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -3206,7 +3208,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+      <c r="A6" t="s">
         <v>115</v>
       </c>
       <c r="B6" t="s">
@@ -3215,18 +3217,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -3289,7 +3291,7 @@
         <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -3297,7 +3299,7 @@
         <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -3305,7 +3307,7 @@
         <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -3313,7 +3315,7 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -3321,7 +3323,7 @@
         <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -3329,7 +3331,7 @@
         <v>197</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
@@ -3425,7 +3427,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -3449,7 +3451,7 @@
         <v>212</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
@@ -3457,7 +3459,7 @@
         <v>213</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -3513,7 +3515,7 @@
         <v>216</v>
       </c>
       <c r="B45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
@@ -3529,7 +3531,7 @@
         <v>218</v>
       </c>
       <c r="B47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -3553,7 +3555,7 @@
         <v>221</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -3561,7 +3563,7 @@
         <v>222</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -3609,7 +3611,7 @@
         <v>228</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -3697,7 +3699,7 @@
         <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -3705,7 +3707,7 @@
         <v>240</v>
       </c>
       <c r="B69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
@@ -3745,7 +3747,7 @@
         <v>245</v>
       </c>
       <c r="B74" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
@@ -3833,7 +3835,7 @@
         <v>256</v>
       </c>
       <c r="B85" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
@@ -4009,7 +4011,7 @@
         <v>278</v>
       </c>
       <c r="B107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -4017,20 +4019,23 @@
         <v>279</v>
       </c>
       <c r="B108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" s="10" t="s">
         <v>280</v>
       </c>
+      <c r="B109" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>281</v>
       </c>
       <c r="B110" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
@@ -4038,7 +4043,7 @@
         <v>282</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
@@ -4054,7 +4059,7 @@
         <v>284</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
@@ -4062,7 +4067,7 @@
         <v>285</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
@@ -4070,7 +4075,7 @@
         <v>286</v>
       </c>
       <c r="B115" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
@@ -4078,7 +4083,7 @@
         <v>287</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
@@ -4086,7 +4091,7 @@
         <v>288</v>
       </c>
       <c r="B117" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -4110,7 +4115,7 @@
         <v>291</v>
       </c>
       <c r="B120" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -4118,25 +4123,31 @@
         <v>292</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" s="10" t="s">
         <v>293</v>
       </c>
+      <c r="B122" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" s="10" t="s">
         <v>294</v>
       </c>
+      <c r="B123" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="10" t="s">
         <v>295</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -4144,7 +4155,7 @@
         <v>296</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
@@ -4157,20 +4168,23 @@
         <v>298</v>
       </c>
       <c r="B127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="10" t="s">
         <v>299</v>
       </c>
+      <c r="B128" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" s="10" t="s">
         <v>300</v>
       </c>
       <c r="B129" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -4178,7 +4192,7 @@
         <v>301</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
